--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B652"/>
+  <dimension ref="A1:B653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1330,7 @@
         <v>44038</v>
       </c>
       <c r="B118">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44178</v>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5562,7 +5562,7 @@
         <v>44588</v>
       </c>
       <c r="B647">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5570,7 +5570,7 @@
         <v>44589</v>
       </c>
       <c r="B648">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5594,7 +5594,7 @@
         <v>44592</v>
       </c>
       <c r="B651">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5602,7 +5602,15 @@
         <v>44593</v>
       </c>
       <c r="B652">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B653">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B653"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44320</v>
       </c>
       <c r="B400">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5610,7 +5610,31 @@
         <v>44594</v>
       </c>
       <c r="B653">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B654">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B655">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B656">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +946,7 @@
         <v>43990</v>
       </c>
       <c r="B70">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44066</v>
       </c>
       <c r="B146">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44113</v>
       </c>
       <c r="B193">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44300</v>
       </c>
       <c r="B380">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44307</v>
       </c>
       <c r="B387">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3586,7 +3586,7 @@
         <v>44320</v>
       </c>
       <c r="B400">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5634,7 +5634,15 @@
         <v>44597</v>
       </c>
       <c r="B656">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B657">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B658"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,7 +794,7 @@
         <v>43971</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43981</v>
       </c>
       <c r="B61">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43990</v>
       </c>
       <c r="B70">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44052</v>
       </c>
       <c r="B132">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44066</v>
       </c>
       <c r="B146">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44113</v>
       </c>
       <c r="B193">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3426,7 +3426,7 @@
         <v>44300</v>
       </c>
       <c r="B380">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3482,7 +3482,7 @@
         <v>44307</v>
       </c>
       <c r="B387">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>44497</v>
       </c>
       <c r="B562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>44518</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44596</v>
       </c>
       <c r="B655">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44597</v>
       </c>
       <c r="B656">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,15 @@
         <v>44598</v>
       </c>
       <c r="B657">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B658">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B658"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,7 +794,7 @@
         <v>43971</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -874,7 +874,7 @@
         <v>43981</v>
       </c>
       <c r="B61">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43990</v>
       </c>
       <c r="B70">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>44052</v>
       </c>
       <c r="B132">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>44497</v>
       </c>
       <c r="B562">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>44518</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44594</v>
       </c>
       <c r="B653">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44596</v>
       </c>
       <c r="B655">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44598</v>
       </c>
       <c r="B657">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5650,7 +5650,15 @@
         <v>44599</v>
       </c>
       <c r="B658">
-        <v>4</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B659">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,7 +794,7 @@
         <v>43971</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43990</v>
       </c>
       <c r="B70">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>44011</v>
       </c>
       <c r="B91">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>44100</v>
       </c>
       <c r="B180">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44113</v>
       </c>
       <c r="B193">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44594</v>
       </c>
       <c r="B653">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44596</v>
       </c>
       <c r="B655">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5658,7 +5658,15 @@
         <v>44600</v>
       </c>
       <c r="B659">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B660">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +994,7 @@
         <v>43996</v>
       </c>
       <c r="B76">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44042</v>
       </c>
       <c r="B122">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>44047</v>
       </c>
       <c r="B127">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44323</v>
       </c>
       <c r="B403">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>44591</v>
       </c>
       <c r="B650">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5634,7 +5634,7 @@
         <v>44597</v>
       </c>
       <c r="B656">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5642,7 +5642,7 @@
         <v>44598</v>
       </c>
       <c r="B657">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5658,7 +5658,7 @@
         <v>44600</v>
       </c>
       <c r="B659">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5666,7 +5666,31 @@
         <v>44601</v>
       </c>
       <c r="B660">
-        <v>5</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B661">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B662">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B663">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,7 +874,7 @@
         <v>43981</v>
       </c>
       <c r="B61">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>44173</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44596</v>
       </c>
       <c r="B655">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5690,7 +5690,23 @@
         <v>44604</v>
       </c>
       <c r="B663">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B664">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B665">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1442,7 +1442,7 @@
         <v>44052</v>
       </c>
       <c r="B132">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5706,7 +5706,15 @@
         <v>44606</v>
       </c>
       <c r="B665">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B666">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B666"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +722,7 @@
         <v>43962</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -946,7 +946,7 @@
         <v>43990</v>
       </c>
       <c r="B70">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -986,7 +986,7 @@
         <v>43995</v>
       </c>
       <c r="B75">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>44002</v>
       </c>
       <c r="B82">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>44003</v>
       </c>
       <c r="B83">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>44034</v>
       </c>
       <c r="B114">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>44038</v>
       </c>
       <c r="B118">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>44058</v>
       </c>
       <c r="B138">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>44062</v>
       </c>
       <c r="B142">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>44066</v>
       </c>
       <c r="B146">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>44108</v>
       </c>
       <c r="B188">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>44110</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>44113</v>
       </c>
       <c r="B193">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44124</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>44147</v>
       </c>
       <c r="B227">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>44158</v>
       </c>
       <c r="B238">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>44178</v>
       </c>
       <c r="B258">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44596</v>
       </c>
       <c r="B655">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5674,7 +5674,7 @@
         <v>44602</v>
       </c>
       <c r="B661">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5698,7 +5698,7 @@
         <v>44605</v>
       </c>
       <c r="B664">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5714,7 +5714,23 @@
         <v>44607</v>
       </c>
       <c r="B666">
-        <v>3</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B667">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B668">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B668"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +994,7 @@
         <v>43996</v>
       </c>
       <c r="B76">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>44130</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44533</v>
       </c>
       <c r="B596">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>44538</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44594</v>
       </c>
       <c r="B653">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5730,7 +5730,23 @@
         <v>44609</v>
       </c>
       <c r="B668">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B669">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B670">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5154,7 +5154,7 @@
         <v>44533</v>
       </c>
       <c r="B596">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>44538</v>
       </c>
       <c r="B601">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44594</v>
       </c>
       <c r="B653">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5746,7 +5746,15 @@
         <v>44611</v>
       </c>
       <c r="B670">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B671">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>43987</v>
       </c>
       <c r="B67">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5514,7 +5514,7 @@
         <v>44582</v>
       </c>
       <c r="B641">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5754,7 +5754,15 @@
         <v>44612</v>
       </c>
       <c r="B671">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B672">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B672"/>
+  <dimension ref="A1:B673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>44483</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -5762,7 +5762,15 @@
         <v>44613</v>
       </c>
       <c r="B672">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B673">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B673"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44017</v>
       </c>
       <c r="B97">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44020</v>
       </c>
       <c r="B100">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>44483</v>
       </c>
       <c r="B549">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -5770,6 +5770,38 @@
         <v>44614</v>
       </c>
       <c r="B673">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B674">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B676">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B677">
         <v>3</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B677"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44017</v>
       </c>
       <c r="B97">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44020</v>
       </c>
       <c r="B100">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5802,7 +5802,15 @@
         <v>44618</v>
       </c>
       <c r="B677">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B678">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B680"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +450,7 @@
         <v>43926</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -866,7 +866,7 @@
         <v>43980</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -898,7 +898,7 @@
         <v>43984</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44010</v>
       </c>
       <c r="B90">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>44017</v>
       </c>
       <c r="B97">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>44145</v>
       </c>
       <c r="B225">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>44148</v>
       </c>
       <c r="B228">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44155</v>
       </c>
       <c r="B235">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>44160</v>
       </c>
       <c r="B240">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>44167</v>
       </c>
       <c r="B247">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>44184</v>
       </c>
       <c r="B264">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44191</v>
       </c>
       <c r="B271">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>44195</v>
       </c>
       <c r="B275">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>44196</v>
       </c>
       <c r="B276">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>44197</v>
       </c>
       <c r="B277">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>44202</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>44212</v>
       </c>
       <c r="B292">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>44215</v>
       </c>
       <c r="B295">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>44218</v>
       </c>
       <c r="B298">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>44221</v>
       </c>
       <c r="B301">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>44222</v>
       </c>
       <c r="B302">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>44239</v>
       </c>
       <c r="B319">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44248</v>
       </c>
       <c r="B328">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>44522</v>
       </c>
       <c r="B585">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>44523</v>
       </c>
       <c r="B586">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44525</v>
       </c>
       <c r="B588">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>44528</v>
       </c>
       <c r="B591">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5810,7 +5810,23 @@
         <v>44619</v>
       </c>
       <c r="B678">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B679">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B680">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B680"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5826,6 +5826,22 @@
         <v>44621</v>
       </c>
       <c r="B680">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B681">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B682">
         <v>3</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44594</v>
       </c>
       <c r="B653">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44596</v>
       </c>
       <c r="B655">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>44619</v>
       </c>
       <c r="B678">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5842,7 +5842,23 @@
         <v>44623</v>
       </c>
       <c r="B682">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B684">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B684"/>
+  <dimension ref="A1:B687"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44289</v>
       </c>
       <c r="B369">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5610,7 +5610,7 @@
         <v>44594</v>
       </c>
       <c r="B653">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5626,7 +5626,7 @@
         <v>44596</v>
       </c>
       <c r="B655">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5810,7 +5810,7 @@
         <v>44619</v>
       </c>
       <c r="B678">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5842,7 +5842,7 @@
         <v>44623</v>
       </c>
       <c r="B682">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5858,7 +5858,31 @@
         <v>44625</v>
       </c>
       <c r="B684">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B687">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B687"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5882,7 +5882,15 @@
         <v>44628</v>
       </c>
       <c r="B687">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B688">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B688"/>
+  <dimension ref="A1:B696"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3338,7 +3338,7 @@
         <v>44289</v>
       </c>
       <c r="B369">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>44533</v>
       </c>
       <c r="B596">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5874,7 +5874,7 @@
         <v>44627</v>
       </c>
       <c r="B686">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5890,7 +5890,71 @@
         <v>44629</v>
       </c>
       <c r="B688">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B692">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>44637</v>
+      </c>
+      <c r="B694">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>44638</v>
+      </c>
+      <c r="B695">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>44639</v>
+      </c>
+      <c r="B696">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B696"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5954,6 +5954,46 @@
         <v>44639</v>
       </c>
       <c r="B696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>44642</v>
+      </c>
+      <c r="B698">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>44643</v>
+      </c>
+      <c r="B699">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>44644</v>
+      </c>
+      <c r="B700">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>44645</v>
+      </c>
+      <c r="B701">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B701"/>
+  <dimension ref="A1:B704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5586,7 +5586,7 @@
         <v>44591</v>
       </c>
       <c r="B650">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5994,6 +5994,30 @@
         <v>44645</v>
       </c>
       <c r="B701">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>44648</v>
+      </c>
+      <c r="B702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>44649</v>
+      </c>
+      <c r="B703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>44650</v>
+      </c>
+      <c r="B704">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B704"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44299</v>
       </c>
       <c r="B379">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5570,7 +5570,7 @@
         <v>44589</v>
       </c>
       <c r="B648">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -6018,6 +6018,54 @@
         <v>44650</v>
       </c>
       <c r="B704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>44653</v>
+      </c>
+      <c r="B707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>44654</v>
+      </c>
+      <c r="B708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>44655</v>
+      </c>
+      <c r="B709">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>44656</v>
+      </c>
+      <c r="B710">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3418,7 +3418,7 @@
         <v>44299</v>
       </c>
       <c r="B379">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5898,7 +5898,7 @@
         <v>44632</v>
       </c>
       <c r="B689">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -6034,7 +6034,7 @@
         <v>44652</v>
       </c>
       <c r="B706">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6066,6 +6066,22 @@
         <v>44656</v>
       </c>
       <c r="B710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" s="2">
+        <v>44659</v>
+      </c>
+      <c r="B712">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B712"/>
+  <dimension ref="A1:B721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5914,7 +5914,7 @@
         <v>44634</v>
       </c>
       <c r="B691">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5999,7 +5999,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44648</v>
+        <v>44646</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B703">
         <v>1</v>
@@ -6015,39 +6015,39 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B704">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B705">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B706">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B707">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B708">
         <v>1</v>
@@ -6055,23 +6055,23 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44655</v>
+        <v>44654</v>
       </c>
       <c r="B709">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44658</v>
+        <v>44656</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,10 +6079,82 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
+        <v>44658</v>
+      </c>
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" s="2">
         <v>44659</v>
       </c>
-      <c r="B712">
-        <v>1</v>
+      <c r="B713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" s="2">
+        <v>44661</v>
+      </c>
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" s="2">
+        <v>44663</v>
+      </c>
+      <c r="B715">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" s="2">
+        <v>44666</v>
+      </c>
+      <c r="B716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" s="2">
+        <v>44669</v>
+      </c>
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" s="2">
+        <v>44670</v>
+      </c>
+      <c r="B718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" s="2">
+        <v>44671</v>
+      </c>
+      <c r="B719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" s="2">
+        <v>44672</v>
+      </c>
+      <c r="B720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" s="2">
+        <v>44674</v>
+      </c>
+      <c r="B721">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B721"/>
+  <dimension ref="A1:B731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +922,7 @@
         <v>43987</v>
       </c>
       <c r="B67">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>44000</v>
       </c>
       <c r="B80">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>44010</v>
       </c>
       <c r="B90">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>44042</v>
       </c>
       <c r="B122">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>44091</v>
       </c>
       <c r="B171">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>44141</v>
       </c>
       <c r="B221">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>44155</v>
       </c>
       <c r="B235">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>44188</v>
       </c>
       <c r="B268">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>44191</v>
       </c>
       <c r="B271">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>44229</v>
       </c>
       <c r="B309">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>44248</v>
       </c>
       <c r="B328">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3578,7 +3578,7 @@
         <v>44319</v>
       </c>
       <c r="B399">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3842,7 +3842,7 @@
         <v>44352</v>
       </c>
       <c r="B432">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>44356</v>
       </c>
       <c r="B436">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>44365</v>
       </c>
       <c r="B445">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>44373</v>
       </c>
       <c r="B453">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>44385</v>
       </c>
       <c r="B465">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>44387</v>
       </c>
       <c r="B467">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>44388</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>44391</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4175,175 +4175,175 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="B474">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="B475">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="B476">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="B477">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="B478">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="B480">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="B481">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2">
-        <v>44402</v>
+        <v>44404</v>
       </c>
       <c r="B482">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="B483">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2">
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="B484">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="B485">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B486">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2">
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="B487">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="B488">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="B489">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="B490">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="B491">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="B492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="B493">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="B494">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -4351,31 +4351,31 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2">
-        <v>44419</v>
+        <v>44421</v>
       </c>
       <c r="B496">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="B497">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -4383,39 +4383,39 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B502">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B503">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -4423,71 +4423,71 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B505">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B507">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2">
-        <v>44432</v>
+        <v>44434</v>
       </c>
       <c r="B508">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2">
-        <v>44433</v>
+        <v>44436</v>
       </c>
       <c r="B509">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2">
-        <v>44434</v>
+        <v>44437</v>
       </c>
       <c r="B510">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2">
-        <v>44435</v>
+        <v>44439</v>
       </c>
       <c r="B511">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2">
-        <v>44436</v>
+        <v>44440</v>
       </c>
       <c r="B512">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2">
-        <v>44437</v>
+        <v>44441</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -4495,47 +4495,47 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="B514">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2">
-        <v>44439</v>
+        <v>44443</v>
       </c>
       <c r="B515">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2">
-        <v>44440</v>
+        <v>44444</v>
       </c>
       <c r="B516">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2">
-        <v>44441</v>
+        <v>44446</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2">
-        <v>44442</v>
+        <v>44447</v>
       </c>
       <c r="B518">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2">
-        <v>44443</v>
+        <v>44448</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -4543,31 +4543,31 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2">
-        <v>44444</v>
+        <v>44449</v>
       </c>
       <c r="B520">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2">
-        <v>44445</v>
+        <v>44451</v>
       </c>
       <c r="B521">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2">
-        <v>44446</v>
+        <v>44452</v>
       </c>
       <c r="B522">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2">
-        <v>44447</v>
+        <v>44454</v>
       </c>
       <c r="B523">
         <v>3</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2">
-        <v>44448</v>
+        <v>44456</v>
       </c>
       <c r="B524">
         <v>3</v>
@@ -4583,23 +4583,23 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2">
-        <v>44449</v>
+        <v>44457</v>
       </c>
       <c r="B525">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2">
-        <v>44451</v>
+        <v>44458</v>
       </c>
       <c r="B526">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2">
-        <v>44452</v>
+        <v>44459</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -4607,31 +4607,31 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2">
-        <v>44454</v>
+        <v>44460</v>
       </c>
       <c r="B528">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2">
-        <v>44455</v>
+        <v>44463</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2">
-        <v>44456</v>
+        <v>44464</v>
       </c>
       <c r="B530">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2">
-        <v>44457</v>
+        <v>44465</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -4639,39 +4639,39 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2">
-        <v>44458</v>
+        <v>44467</v>
       </c>
       <c r="B532">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2">
-        <v>44459</v>
+        <v>44468</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2">
-        <v>44460</v>
+        <v>44469</v>
       </c>
       <c r="B534">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2">
-        <v>44462</v>
+        <v>44470</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2">
-        <v>44463</v>
+        <v>44475</v>
       </c>
       <c r="B536">
         <v>2</v>
@@ -4679,23 +4679,23 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2">
-        <v>44464</v>
+        <v>44476</v>
       </c>
       <c r="B537">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2">
-        <v>44465</v>
+        <v>44477</v>
       </c>
       <c r="B538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2">
-        <v>44467</v>
+        <v>44478</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2">
-        <v>44468</v>
+        <v>44480</v>
       </c>
       <c r="B540">
         <v>3</v>
@@ -4711,39 +4711,39 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2">
-        <v>44469</v>
+        <v>44482</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2">
-        <v>44470</v>
+        <v>44483</v>
       </c>
       <c r="B542">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2">
-        <v>44475</v>
+        <v>44484</v>
       </c>
       <c r="B543">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2">
-        <v>44476</v>
+        <v>44485</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2">
-        <v>44477</v>
+        <v>44486</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2">
-        <v>44478</v>
+        <v>44487</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -4759,55 +4759,55 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2">
-        <v>44480</v>
+        <v>44488</v>
       </c>
       <c r="B547">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="B548">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2">
-        <v>44483</v>
+        <v>44490</v>
       </c>
       <c r="B549">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="B550">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2">
-        <v>44485</v>
+        <v>44492</v>
       </c>
       <c r="B551">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2">
-        <v>44486</v>
+        <v>44494</v>
       </c>
       <c r="B552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -4815,15 +4815,15 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2">
-        <v>44488</v>
+        <v>44496</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2">
-        <v>44489</v>
+        <v>44499</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2">
-        <v>44490</v>
+        <v>44500</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2">
-        <v>44491</v>
+        <v>44501</v>
       </c>
       <c r="B557">
         <v>3</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2">
-        <v>44492</v>
+        <v>44502</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2">
-        <v>44494</v>
+        <v>44504</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -4863,23 +4863,23 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2">
-        <v>44495</v>
+        <v>44505</v>
       </c>
       <c r="B560">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2">
-        <v>44496</v>
+        <v>44506</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2">
-        <v>44497</v>
+        <v>44507</v>
       </c>
       <c r="B562">
         <v>2</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2">
-        <v>44499</v>
+        <v>44508</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -4895,71 +4895,71 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2">
-        <v>44500</v>
+        <v>44509</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2">
-        <v>44501</v>
+        <v>44510</v>
       </c>
       <c r="B565">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2">
-        <v>44502</v>
+        <v>44511</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2">
-        <v>44504</v>
+        <v>44512</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2">
-        <v>44505</v>
+        <v>44513</v>
       </c>
       <c r="B568">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2">
-        <v>44506</v>
+        <v>44514</v>
       </c>
       <c r="B569">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2">
-        <v>44507</v>
+        <v>44515</v>
       </c>
       <c r="B570">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2">
-        <v>44508</v>
+        <v>44516</v>
       </c>
       <c r="B571">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2">
-        <v>44509</v>
+        <v>44517</v>
       </c>
       <c r="B572">
         <v>3</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2">
-        <v>44510</v>
+        <v>44518</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -4975,31 +4975,31 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="B574">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2">
-        <v>44512</v>
+        <v>44520</v>
       </c>
       <c r="B575">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2">
-        <v>44513</v>
+        <v>44521</v>
       </c>
       <c r="B576">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2">
-        <v>44514</v>
+        <v>44522</v>
       </c>
       <c r="B577">
         <v>2</v>
@@ -5007,39 +5007,39 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2">
-        <v>44515</v>
+        <v>44523</v>
       </c>
       <c r="B578">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2">
-        <v>44516</v>
+        <v>44524</v>
       </c>
       <c r="B579">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2">
-        <v>44517</v>
+        <v>44525</v>
       </c>
       <c r="B580">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2">
-        <v>44518</v>
+        <v>44526</v>
       </c>
       <c r="B581">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2">
-        <v>44519</v>
+        <v>44527</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -5047,23 +5047,23 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2">
-        <v>44520</v>
+        <v>44528</v>
       </c>
       <c r="B583">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2">
-        <v>44521</v>
+        <v>44529</v>
       </c>
       <c r="B584">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2">
-        <v>44522</v>
+        <v>44530</v>
       </c>
       <c r="B585">
         <v>2</v>
@@ -5071,95 +5071,95 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2">
-        <v>44523</v>
+        <v>44531</v>
       </c>
       <c r="B586">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2">
-        <v>44524</v>
+        <v>44532</v>
       </c>
       <c r="B587">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2">
-        <v>44525</v>
+        <v>44533</v>
       </c>
       <c r="B588">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2">
-        <v>44526</v>
+        <v>44534</v>
       </c>
       <c r="B589">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2">
-        <v>44527</v>
+        <v>44535</v>
       </c>
       <c r="B590">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2">
-        <v>44528</v>
+        <v>44536</v>
       </c>
       <c r="B591">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2">
-        <v>44529</v>
+        <v>44537</v>
       </c>
       <c r="B592">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2">
-        <v>44530</v>
+        <v>44538</v>
       </c>
       <c r="B593">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2">
-        <v>44531</v>
+        <v>44539</v>
       </c>
       <c r="B594">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2">
-        <v>44532</v>
+        <v>44540</v>
       </c>
       <c r="B595">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2">
-        <v>44533</v>
+        <v>44541</v>
       </c>
       <c r="B596">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2">
-        <v>44534</v>
+        <v>44542</v>
       </c>
       <c r="B597">
         <v>2</v>
@@ -5167,71 +5167,71 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2">
-        <v>44535</v>
+        <v>44543</v>
       </c>
       <c r="B598">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2">
-        <v>44536</v>
+        <v>44544</v>
       </c>
       <c r="B599">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2">
-        <v>44537</v>
+        <v>44545</v>
       </c>
       <c r="B600">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2">
-        <v>44538</v>
+        <v>44546</v>
       </c>
       <c r="B601">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2">
-        <v>44539</v>
+        <v>44547</v>
       </c>
       <c r="B602">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2">
-        <v>44540</v>
+        <v>44548</v>
       </c>
       <c r="B603">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2">
-        <v>44541</v>
+        <v>44549</v>
       </c>
       <c r="B604">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2">
-        <v>44542</v>
+        <v>44550</v>
       </c>
       <c r="B605">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2">
-        <v>44543</v>
+        <v>44551</v>
       </c>
       <c r="B606">
         <v>2</v>
@@ -5239,23 +5239,23 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="B607">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2">
-        <v>44545</v>
+        <v>44554</v>
       </c>
       <c r="B608">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2">
-        <v>44546</v>
+        <v>44555</v>
       </c>
       <c r="B609">
         <v>2</v>
@@ -5263,47 +5263,47 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2">
-        <v>44547</v>
+        <v>44556</v>
       </c>
       <c r="B610">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2">
-        <v>44548</v>
+        <v>44558</v>
       </c>
       <c r="B611">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2">
-        <v>44549</v>
+        <v>44559</v>
       </c>
       <c r="B612">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2">
-        <v>44550</v>
+        <v>44560</v>
       </c>
       <c r="B613">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2">
-        <v>44551</v>
+        <v>44562</v>
       </c>
       <c r="B614">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2">
-        <v>44552</v>
+        <v>44563</v>
       </c>
       <c r="B615">
         <v>1</v>
@@ -5311,39 +5311,39 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2">
-        <v>44553</v>
+        <v>44564</v>
       </c>
       <c r="B616">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2">
-        <v>44554</v>
+        <v>44565</v>
       </c>
       <c r="B617">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2">
-        <v>44555</v>
+        <v>44567</v>
       </c>
       <c r="B618">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2">
-        <v>44556</v>
+        <v>44568</v>
       </c>
       <c r="B619">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2">
-        <v>44558</v>
+        <v>44569</v>
       </c>
       <c r="B620">
         <v>2</v>
@@ -5351,215 +5351,215 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2">
-        <v>44559</v>
+        <v>44570</v>
       </c>
       <c r="B621">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2">
-        <v>44560</v>
+        <v>44572</v>
       </c>
       <c r="B622">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2">
-        <v>44562</v>
+        <v>44573</v>
       </c>
       <c r="B623">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2">
-        <v>44563</v>
+        <v>44574</v>
       </c>
       <c r="B624">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2">
-        <v>44564</v>
+        <v>44575</v>
       </c>
       <c r="B625">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2">
-        <v>44565</v>
+        <v>44576</v>
       </c>
       <c r="B626">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2">
-        <v>44567</v>
+        <v>44577</v>
       </c>
       <c r="B627">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2">
-        <v>44568</v>
+        <v>44578</v>
       </c>
       <c r="B628">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2">
-        <v>44569</v>
+        <v>44579</v>
       </c>
       <c r="B629">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2">
-        <v>44570</v>
+        <v>44580</v>
       </c>
       <c r="B630">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2">
-        <v>44572</v>
+        <v>44581</v>
       </c>
       <c r="B631">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2">
-        <v>44573</v>
+        <v>44582</v>
       </c>
       <c r="B632">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2">
-        <v>44574</v>
+        <v>44583</v>
       </c>
       <c r="B633">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2">
-        <v>44575</v>
+        <v>44584</v>
       </c>
       <c r="B634">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2">
-        <v>44576</v>
+        <v>44585</v>
       </c>
       <c r="B635">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2">
-        <v>44577</v>
+        <v>44586</v>
       </c>
       <c r="B636">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2">
-        <v>44578</v>
+        <v>44587</v>
       </c>
       <c r="B637">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2">
-        <v>44579</v>
+        <v>44588</v>
       </c>
       <c r="B638">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2">
-        <v>44580</v>
+        <v>44589</v>
       </c>
       <c r="B639">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2">
-        <v>44581</v>
+        <v>44590</v>
       </c>
       <c r="B640">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2">
-        <v>44582</v>
+        <v>44591</v>
       </c>
       <c r="B641">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2">
-        <v>44583</v>
+        <v>44592</v>
       </c>
       <c r="B642">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2">
-        <v>44584</v>
+        <v>44593</v>
       </c>
       <c r="B643">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2">
-        <v>44585</v>
+        <v>44594</v>
       </c>
       <c r="B644">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2">
-        <v>44586</v>
+        <v>44595</v>
       </c>
       <c r="B645">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2">
-        <v>44587</v>
+        <v>44596</v>
       </c>
       <c r="B646">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2">
-        <v>44588</v>
+        <v>44597</v>
       </c>
       <c r="B647">
         <v>11</v>
@@ -5567,79 +5567,79 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2">
-        <v>44589</v>
+        <v>44598</v>
       </c>
       <c r="B648">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2">
-        <v>44590</v>
+        <v>44599</v>
       </c>
       <c r="B649">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2">
-        <v>44591</v>
+        <v>44600</v>
       </c>
       <c r="B650">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2">
-        <v>44592</v>
+        <v>44601</v>
       </c>
       <c r="B651">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2">
-        <v>44593</v>
+        <v>44602</v>
       </c>
       <c r="B652">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2">
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="B653">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2">
-        <v>44595</v>
+        <v>44604</v>
       </c>
       <c r="B654">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2">
-        <v>44596</v>
+        <v>44605</v>
       </c>
       <c r="B655">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2">
-        <v>44597</v>
+        <v>44606</v>
       </c>
       <c r="B656">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2">
-        <v>44598</v>
+        <v>44607</v>
       </c>
       <c r="B657">
         <v>10</v>
@@ -5647,95 +5647,95 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2">
-        <v>44599</v>
+        <v>44608</v>
       </c>
       <c r="B658">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2">
-        <v>44600</v>
+        <v>44609</v>
       </c>
       <c r="B659">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2">
-        <v>44601</v>
+        <v>44610</v>
       </c>
       <c r="B660">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2">
-        <v>44602</v>
+        <v>44611</v>
       </c>
       <c r="B661">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2">
-        <v>44603</v>
+        <v>44612</v>
       </c>
       <c r="B662">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2">
-        <v>44604</v>
+        <v>44613</v>
       </c>
       <c r="B663">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2">
-        <v>44605</v>
+        <v>44614</v>
       </c>
       <c r="B664">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2">
-        <v>44606</v>
+        <v>44615</v>
       </c>
       <c r="B665">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2">
-        <v>44607</v>
+        <v>44616</v>
       </c>
       <c r="B666">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2">
-        <v>44608</v>
+        <v>44617</v>
       </c>
       <c r="B667">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2">
-        <v>44609</v>
+        <v>44618</v>
       </c>
       <c r="B668">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2">
-        <v>44610</v>
+        <v>44619</v>
       </c>
       <c r="B669">
         <v>8</v>
@@ -5743,135 +5743,135 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2">
-        <v>44611</v>
+        <v>44620</v>
       </c>
       <c r="B670">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2">
-        <v>44612</v>
+        <v>44621</v>
       </c>
       <c r="B671">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2">
-        <v>44613</v>
+        <v>44622</v>
       </c>
       <c r="B672">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2">
-        <v>44614</v>
+        <v>44623</v>
       </c>
       <c r="B673">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2">
-        <v>44615</v>
+        <v>44624</v>
       </c>
       <c r="B674">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2">
-        <v>44616</v>
+        <v>44625</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2">
-        <v>44617</v>
+        <v>44626</v>
       </c>
       <c r="B676">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2">
-        <v>44618</v>
+        <v>44627</v>
       </c>
       <c r="B677">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2">
-        <v>44619</v>
+        <v>44628</v>
       </c>
       <c r="B678">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2">
-        <v>44620</v>
+        <v>44629</v>
       </c>
       <c r="B679">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2">
-        <v>44621</v>
+        <v>44632</v>
       </c>
       <c r="B680">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2">
-        <v>44622</v>
+        <v>44633</v>
       </c>
       <c r="B681">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2">
-        <v>44623</v>
+        <v>44634</v>
       </c>
       <c r="B682">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2">
-        <v>44624</v>
+        <v>44635</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2">
-        <v>44625</v>
+        <v>44636</v>
       </c>
       <c r="B684">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2">
-        <v>44626</v>
+        <v>44637</v>
       </c>
       <c r="B685">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2">
-        <v>44627</v>
+        <v>44638</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -5879,39 +5879,39 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2">
-        <v>44628</v>
+        <v>44639</v>
       </c>
       <c r="B687">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2">
-        <v>44629</v>
+        <v>44641</v>
       </c>
       <c r="B688">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2">
-        <v>44632</v>
+        <v>44642</v>
       </c>
       <c r="B689">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2">
-        <v>44633</v>
+        <v>44643</v>
       </c>
       <c r="B690">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2">
-        <v>44634</v>
+        <v>44644</v>
       </c>
       <c r="B691">
         <v>2</v>
@@ -5919,15 +5919,15 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2">
-        <v>44635</v>
+        <v>44645</v>
       </c>
       <c r="B692">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2">
-        <v>44636</v>
+        <v>44646</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -5935,23 +5935,23 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2">
-        <v>44637</v>
+        <v>44648</v>
       </c>
       <c r="B694">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2">
-        <v>44638</v>
+        <v>44649</v>
       </c>
       <c r="B695">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2">
-        <v>44639</v>
+        <v>44650</v>
       </c>
       <c r="B696">
         <v>3</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2">
-        <v>44641</v>
+        <v>44651</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2">
-        <v>44642</v>
+        <v>44652</v>
       </c>
       <c r="B698">
         <v>5</v>
@@ -5975,31 +5975,31 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2">
-        <v>44643</v>
+        <v>44653</v>
       </c>
       <c r="B699">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2">
-        <v>44644</v>
+        <v>44654</v>
       </c>
       <c r="B700">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2">
-        <v>44645</v>
+        <v>44655</v>
       </c>
       <c r="B701">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2">
-        <v>44646</v>
+        <v>44656</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2">
-        <v>44648</v>
+        <v>44658</v>
       </c>
       <c r="B703">
         <v>1</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2">
-        <v>44649</v>
+        <v>44659</v>
       </c>
       <c r="B704">
         <v>1</v>
@@ -6023,31 +6023,31 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="B705">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2">
-        <v>44651</v>
+        <v>44663</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2">
-        <v>44652</v>
+        <v>44666</v>
       </c>
       <c r="B707">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2">
-        <v>44653</v>
+        <v>44669</v>
       </c>
       <c r="B708">
         <v>1</v>
@@ -6055,23 +6055,23 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2">
-        <v>44654</v>
+        <v>44670</v>
       </c>
       <c r="B709">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2">
-        <v>44655</v>
+        <v>44671</v>
       </c>
       <c r="B710">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2">
-        <v>44656</v>
+        <v>44672</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -6079,15 +6079,15 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2">
-        <v>44658</v>
+        <v>44674</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2">
-        <v>44659</v>
+        <v>44678</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2">
-        <v>44661</v>
+        <v>44680</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -6103,15 +6103,15 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2">
-        <v>44663</v>
+        <v>44681</v>
       </c>
       <c r="B715">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2">
-        <v>44666</v>
+        <v>44683</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2">
-        <v>44669</v>
+        <v>44684</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -6127,23 +6127,23 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2">
-        <v>44670</v>
+        <v>44686</v>
       </c>
       <c r="B718">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2">
-        <v>44671</v>
+        <v>44687</v>
       </c>
       <c r="B719">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2">
-        <v>44672</v>
+        <v>44688</v>
       </c>
       <c r="B720">
         <v>1</v>
@@ -6151,9 +6151,89 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2">
-        <v>44674</v>
+        <v>44689</v>
       </c>
       <c r="B721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" s="2">
+        <v>44690</v>
+      </c>
+      <c r="B722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" s="2">
+        <v>44697</v>
+      </c>
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" s="2">
+        <v>44698</v>
+      </c>
+      <c r="B725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" s="2">
+        <v>44699</v>
+      </c>
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" s="2">
+        <v>44701</v>
+      </c>
+      <c r="B728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" s="2">
+        <v>44708</v>
+      </c>
+      <c r="B729">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" s="2">
+        <v>44709</v>
+      </c>
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" s="2">
+        <v>44712</v>
+      </c>
+      <c r="B731">
         <v>2</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B731"/>
+  <dimension ref="A1:B740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5090,7 +5090,7 @@
         <v>44533</v>
       </c>
       <c r="B588">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -6235,6 +6235,78 @@
       </c>
       <c r="B731">
         <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" s="2">
+        <v>44713</v>
+      </c>
+      <c r="B732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" s="2">
+        <v>44717</v>
+      </c>
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" s="2">
+        <v>44721</v>
+      </c>
+      <c r="B735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" s="2">
+        <v>44723</v>
+      </c>
+      <c r="B736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" s="2">
+        <v>44729</v>
+      </c>
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" s="2">
+        <v>44730</v>
+      </c>
+      <c r="B739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" s="2">
+        <v>44736</v>
+      </c>
+      <c r="B740">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B740"/>
+  <dimension ref="A1:B742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1338,7 +1338,7 @@
         <v>44039</v>
       </c>
       <c r="B119">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>44533</v>
       </c>
       <c r="B588">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -6306,6 +6306,22 @@
         <v>44736</v>
       </c>
       <c r="B740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" s="2">
+        <v>44740</v>
+      </c>
+      <c r="B741">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" s="2">
+        <v>44741</v>
+      </c>
+      <c r="B742">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -1338,7 +1338,7 @@
         <v>44039</v>
       </c>
       <c r="B119">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44299</v>
       </c>
       <c r="B379">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B742"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44017</v>
       </c>
       <c r="B97">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44020</v>
       </c>
       <c r="B100">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3418,7 +3418,7 @@
         <v>44299</v>
       </c>
       <c r="B379">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44323</v>
       </c>
       <c r="B403">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6322,6 +6322,14 @@
         <v>44741</v>
       </c>
       <c r="B742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" s="2">
+        <v>44745</v>
+      </c>
+      <c r="B743">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B743"/>
+  <dimension ref="A1:B744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6333,6 +6333,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="744" spans="1:2">
+      <c r="A744" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B744">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -1162,7 +1162,7 @@
         <v>44017</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44020</v>
       </c>
       <c r="B100">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3610,7 +3610,7 @@
         <v>44323</v>
       </c>
       <c r="B403">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6338,7 +6338,7 @@
         <v>44746</v>
       </c>
       <c r="B744">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B744"/>
+  <dimension ref="A1:B746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6339,6 +6339,22 @@
       </c>
       <c r="B744">
         <v>3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B746">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B746"/>
+  <dimension ref="A1:B750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -6354,6 +6354,38 @@
         <v>44749</v>
       </c>
       <c r="B746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B750">
         <v>1</v>
       </c>
     </row>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B750"/>
+  <dimension ref="A1:B754"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1162,7 @@
         <v>44017</v>
       </c>
       <c r="B97">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44020</v>
       </c>
       <c r="B100">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3514,7 +3514,7 @@
         <v>44311</v>
       </c>
       <c r="B391">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6387,6 +6387,38 @@
       </c>
       <c r="B750">
         <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B753">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B754">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -1162,7 +1162,7 @@
         <v>44017</v>
       </c>
       <c r="B97">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>44020</v>
       </c>
       <c r="B100">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B754"/>
+  <dimension ref="A1:B760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -6419,6 +6419,54 @@
       </c>
       <c r="B754">
         <v>2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B755">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B758">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B759">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B760">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B760"/>
+  <dimension ref="A1:B761"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6466,7 +6466,15 @@
         <v>44773</v>
       </c>
       <c r="B760">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B761"/>
+  <dimension ref="A1:B762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6402,7 +6402,7 @@
         <v>44763</v>
       </c>
       <c r="B752">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6474,7 +6474,15 @@
         <v>44774</v>
       </c>
       <c r="B761">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B762">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B762"/>
+  <dimension ref="A1:B764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6402,7 +6402,7 @@
         <v>44763</v>
       </c>
       <c r="B752">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6483,6 +6483,22 @@
       </c>
       <c r="B762">
         <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B763">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B764">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B764"/>
+  <dimension ref="A1:B767"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6501,6 +6501,30 @@
         <v>4</v>
       </c>
     </row>
+    <row r="765" spans="1:2">
+      <c r="A765" s="2">
+        <v>44778</v>
+      </c>
+      <c r="B765">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B766">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" s="2">
+        <v>44780</v>
+      </c>
+      <c r="B767">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B767"/>
+  <dimension ref="A1:B773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3146,7 +3146,7 @@
         <v>44265</v>
       </c>
       <c r="B345">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -6522,7 +6522,55 @@
         <v>44780</v>
       </c>
       <c r="B767">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B769">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B770">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B771">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B772">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" s="2">
+        <v>44787</v>
+      </c>
+      <c r="B773">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>44265</v>
       </c>
       <c r="B345">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>44538</v>
       </c>
       <c r="B593">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:2">

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B773"/>
+  <dimension ref="A1:B781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>44538</v>
       </c>
       <c r="B593">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -6571,6 +6571,70 @@
       </c>
       <c r="B773">
         <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B774">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B775">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B776">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B778">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B781">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B781"/>
+  <dimension ref="A1:B787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6634,7 +6634,55 @@
         <v>44796</v>
       </c>
       <c r="B781">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B782">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B783">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B785">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" s="2">
+        <v>44801</v>
+      </c>
+      <c r="B786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B787">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B787"/>
+  <dimension ref="A1:B791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6683,6 +6683,38 @@
       </c>
       <c r="B787">
         <v>3</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" s="2">
+        <v>44804</v>
+      </c>
+      <c r="B788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B791">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B791"/>
+  <dimension ref="A1:B796"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44289</v>
       </c>
       <c r="B369">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>44425</v>
       </c>
       <c r="B500">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -6698,7 +6698,7 @@
         <v>44805</v>
       </c>
       <c r="B789">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6715,6 +6715,46 @@
       </c>
       <c r="B791">
         <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" s="2">
+        <v>44808</v>
+      </c>
+      <c r="B792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B793">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B796">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B796"/>
+  <dimension ref="A1:B802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1770,7 +1770,7 @@
         <v>44093</v>
       </c>
       <c r="B173">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3338,7 +3338,7 @@
         <v>44289</v>
       </c>
       <c r="B369">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>44364</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>44794</v>
       </c>
       <c r="B779">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6751,10 +6751,58 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B796">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" s="2">
         <v>44814</v>
       </c>
-      <c r="B796">
-        <v>3</v>
+      <c r="B797">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" s="2">
+        <v>44819</v>
+      </c>
+      <c r="B800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" s="2">
+        <v>44821</v>
+      </c>
+      <c r="B801">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" s="2">
+        <v>44822</v>
+      </c>
+      <c r="B802">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B802"/>
+  <dimension ref="A1:B806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>44112</v>
       </c>
       <c r="B192">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -6618,7 +6618,7 @@
         <v>44794</v>
       </c>
       <c r="B779">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6803,6 +6803,38 @@
       </c>
       <c r="B802">
         <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" s="2">
+        <v>44823</v>
+      </c>
+      <c r="B803">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" s="2">
+        <v>44828</v>
+      </c>
+      <c r="B806">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/regiones/fallecidos_lalibertad.xlsx
+++ b/regiones/fallecidos_lalibertad.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B806"/>
+  <dimension ref="A1:B809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1018,7 @@
         <v>43999</v>
       </c>
       <c r="B79">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6834,6 +6834,30 @@
         <v>44828</v>
       </c>
       <c r="B806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" s="2">
+        <v>44829</v>
+      </c>
+      <c r="B807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B808">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B809">
         <v>1</v>
       </c>
     </row>
